--- a/udder_processing/validate_watershed/survey_results_working.xlsx
+++ b/udder_processing/validate_watershed/survey_results_working.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marie\rep_codes\udder_project\udder_processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marie\rep_codes\udder_project\udder_processing\validate_watershed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD77E458-50C7-44BC-B680-00AFB71A9476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B2AAB1-12E3-4E37-B32B-868505717789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{58CE4EFF-EF19-4970-A776-924EB50296C0}"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="15545" windowHeight="10080" xr2:uid="{58CE4EFF-EF19-4970-A776-924EB50296C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
   <si>
     <t>R1</t>
   </si>
@@ -973,6 +973,12 @@
   </si>
   <si>
     <t>class</t>
+  </si>
+  <si>
+    <t>bad*</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -1025,6 +1031,44 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{84E2FED9-CA97-47CD-AF54-B0206B6792E5}" name="Table1" displayName="Table1" ref="A1:M301" totalsRowShown="0">
+  <autoFilter ref="A1:M301" xr:uid="{84E2FED9-CA97-47CD-AF54-B0206B6792E5}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="723"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{199C2EB8-DE44-4C0B-812F-DF505299C5F4}" name="cow"/>
+    <tableColumn id="2" xr3:uid="{4940D295-1B8C-4001-8A93-CE37C022004E}" name="filename"/>
+    <tableColumn id="3" xr3:uid="{B4AF5620-A7E7-44D4-82A0-551599EB1431}" name="group"/>
+    <tableColumn id="4" xr3:uid="{2004ECD8-C60C-4358-9056-F679C5E8ADF1}" name="index"/>
+    <tableColumn id="5" xr3:uid="{0D458BFF-BCD8-4A44-AED2-841E90239210}" name="R1"/>
+    <tableColumn id="6" xr3:uid="{884E69F3-21BF-47E5-A913-F1480D5FD1C6}" name="R2"/>
+    <tableColumn id="7" xr3:uid="{B47E22AA-2779-45A8-A349-4A0703FA1B30}" name="R3"/>
+    <tableColumn id="8" xr3:uid="{35CD8186-1447-4ECA-A527-2C65AFE30E9C}" name="R1_b">
+      <calculatedColumnFormula>IF(E2&gt;=3, 1, 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{3A127DF5-7F55-4AEF-A949-A754EDE60EFC}" name="R2_b">
+      <calculatedColumnFormula>IF(F2&gt;=3, 1, 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{575FFE57-FA61-4A72-B91E-EDF27F895D7B}" name="R3_b">
+      <calculatedColumnFormula>IF(G2&gt;=3, 1, 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{F643C2ED-EA5A-44C7-9C3D-7E27541B0A0F}" name="score">
+      <calculatedColumnFormula>SUM(H2:J2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{9C9A62AF-C562-4303-88DC-64D232A59677}" name="class">
+      <calculatedColumnFormula>IF(K2&gt;=2, 1, 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{824BE632-459E-46DC-8C74-CF1F5728E569}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1324,15 +1368,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C2F256-E903-4668-B3E6-A4D7ACC3007F}">
-  <dimension ref="A1:L302"/>
+  <dimension ref="A1:M302"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" activeCellId="2" sqref="A1:A1048576 B1:B1048576 L1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M113" sqref="M113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="2" max="2" width="29.58984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>306</v>
       </c>
@@ -1369,8 +1416,11 @@
       <c r="L1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>1057</v>
       </c>
@@ -1413,7 +1463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>808</v>
       </c>
@@ -1456,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>868</v>
       </c>
@@ -1499,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>627</v>
       </c>
@@ -1542,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>1376</v>
       </c>
@@ -1585,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>1335</v>
       </c>
@@ -1628,7 +1678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>1360</v>
       </c>
@@ -1671,7 +1721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>1039</v>
       </c>
@@ -1714,7 +1764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>1300</v>
       </c>
@@ -1757,7 +1807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>1354</v>
       </c>
@@ -1800,7 +1850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>1057</v>
       </c>
@@ -1843,7 +1893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>808</v>
       </c>
@@ -1886,7 +1936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>868</v>
       </c>
@@ -1929,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>627</v>
       </c>
@@ -1972,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>1376</v>
       </c>
@@ -2015,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A17">
         <v>1335</v>
       </c>
@@ -2058,7 +2108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A18">
         <v>1360</v>
       </c>
@@ -2101,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A19">
         <v>1039</v>
       </c>
@@ -2144,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A20">
         <v>1300</v>
       </c>
@@ -2187,7 +2237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A21">
         <v>1354</v>
       </c>
@@ -2230,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A22">
         <v>1057</v>
       </c>
@@ -2273,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A23">
         <v>808</v>
       </c>
@@ -2316,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A24">
         <v>868</v>
       </c>
@@ -2359,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A25">
         <v>627</v>
       </c>
@@ -2402,7 +2452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A26">
         <v>1376</v>
       </c>
@@ -2445,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A27">
         <v>1335</v>
       </c>
@@ -2488,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A28">
         <v>1360</v>
       </c>
@@ -2531,7 +2581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A29">
         <v>1039</v>
       </c>
@@ -2574,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A30">
         <v>1300</v>
       </c>
@@ -2617,7 +2667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A31">
         <v>837</v>
       </c>
@@ -2660,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A32">
         <v>1057</v>
       </c>
@@ -2703,7 +2753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A33">
         <v>808</v>
       </c>
@@ -2746,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A34">
         <v>868</v>
       </c>
@@ -2789,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A35">
         <v>627</v>
       </c>
@@ -2832,7 +2882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A36">
         <v>1376</v>
       </c>
@@ -2875,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A37">
         <v>1335</v>
       </c>
@@ -2918,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A38">
         <v>1360</v>
       </c>
@@ -2961,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A39">
         <v>1039</v>
       </c>
@@ -3004,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A40">
         <v>1300</v>
       </c>
@@ -3047,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A41">
         <v>837</v>
       </c>
@@ -3090,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A42">
         <v>1057</v>
       </c>
@@ -3133,7 +3183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A43">
         <v>808</v>
       </c>
@@ -3176,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A44">
         <v>868</v>
       </c>
@@ -3219,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A45">
         <v>627</v>
       </c>
@@ -3262,7 +3312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A46">
         <v>1376</v>
       </c>
@@ -3305,7 +3355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A47">
         <v>1335</v>
       </c>
@@ -3348,7 +3398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A48">
         <v>1360</v>
       </c>
@@ -3391,7 +3441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A49">
         <v>1039</v>
       </c>
@@ -3434,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A50">
         <v>1271</v>
       </c>
@@ -3477,7 +3527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A51">
         <v>837</v>
       </c>
@@ -3520,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A52">
         <v>1057</v>
       </c>
@@ -3563,7 +3613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A53">
         <v>808</v>
       </c>
@@ -3606,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A54">
         <v>868</v>
       </c>
@@ -3649,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A55">
         <v>627</v>
       </c>
@@ -3692,7 +3742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A56">
         <v>1376</v>
       </c>
@@ -3735,7 +3785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A57">
         <v>1335</v>
       </c>
@@ -3778,7 +3828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A58">
         <v>1360</v>
       </c>
@@ -3821,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A59">
         <v>1039</v>
       </c>
@@ -3864,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A60">
         <v>1271</v>
       </c>
@@ -3907,7 +3957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A61">
         <v>837</v>
       </c>
@@ -3950,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A62">
         <v>970</v>
       </c>
@@ -3993,7 +4043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A63">
         <v>723</v>
       </c>
@@ -4036,7 +4086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A64">
         <v>1288</v>
       </c>
@@ -4079,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A65">
         <v>1291</v>
       </c>
@@ -4122,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A66">
         <v>1315</v>
       </c>
@@ -4165,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A67">
         <v>736</v>
       </c>
@@ -4208,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A68">
         <v>922</v>
       </c>
@@ -4251,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A69">
         <v>975</v>
       </c>
@@ -4294,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A70">
         <v>1271</v>
       </c>
@@ -4337,7 +4387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A71">
         <v>837</v>
       </c>
@@ -4380,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A72">
         <v>970</v>
       </c>
@@ -4423,7 +4473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A73">
         <v>723</v>
       </c>
@@ -4466,7 +4516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A74">
         <v>1288</v>
       </c>
@@ -4509,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A75">
         <v>1291</v>
       </c>
@@ -4552,7 +4602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A76">
         <v>1315</v>
       </c>
@@ -4595,7 +4645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A77">
         <v>736</v>
       </c>
@@ -4638,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A78">
         <v>922</v>
       </c>
@@ -4681,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A79">
         <v>975</v>
       </c>
@@ -4724,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A80">
         <v>1271</v>
       </c>
@@ -4767,7 +4817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A81">
         <v>837</v>
       </c>
@@ -4810,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A82">
         <v>970</v>
       </c>
@@ -4853,7 +4903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A83">
         <v>723</v>
       </c>
@@ -4896,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A84">
         <v>1288</v>
       </c>
@@ -4939,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A85">
         <v>1291</v>
       </c>
@@ -4982,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A86">
         <v>1315</v>
       </c>
@@ -5025,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A87">
         <v>736</v>
       </c>
@@ -5068,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A88">
         <v>922</v>
       </c>
@@ -5111,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A89">
         <v>975</v>
       </c>
@@ -5154,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A90">
         <v>1271</v>
       </c>
@@ -5197,7 +5247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A91">
         <v>837</v>
       </c>
@@ -5240,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A92">
         <v>970</v>
       </c>
@@ -5283,7 +5333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A93">
         <v>723</v>
       </c>
@@ -5326,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A94">
         <v>1288</v>
       </c>
@@ -5369,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A95">
         <v>1291</v>
       </c>
@@ -5412,7 +5462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A96">
         <v>1315</v>
       </c>
@@ -5455,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A97">
         <v>736</v>
       </c>
@@ -5498,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A98">
         <v>922</v>
       </c>
@@ -5541,7 +5591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A99">
         <v>975</v>
       </c>
@@ -5584,7 +5634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A100">
         <v>1271</v>
       </c>
@@ -5627,7 +5677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A101">
         <v>1325</v>
       </c>
@@ -5670,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A102">
         <v>970</v>
       </c>
@@ -5713,7 +5763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A103">
         <v>723</v>
       </c>
@@ -5755,8 +5805,11 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A104">
         <v>1288</v>
       </c>
@@ -5799,7 +5852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A105">
         <v>1291</v>
       </c>
@@ -5842,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A106">
         <v>1315</v>
       </c>
@@ -5885,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A107">
         <v>736</v>
       </c>
@@ -5928,7 +5981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A108">
         <v>922</v>
       </c>
@@ -5971,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A109">
         <v>975</v>
       </c>
@@ -6014,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A110">
         <v>1271</v>
       </c>
@@ -6057,7 +6110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A111">
         <v>1325</v>
       </c>
@@ -6100,7 +6153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A112">
         <v>970</v>
       </c>
@@ -6143,7 +6196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A113">
         <v>723</v>
       </c>
@@ -6186,7 +6239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A114">
         <v>1288</v>
       </c>
@@ -6229,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A115">
         <v>1291</v>
       </c>
@@ -6272,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A116">
         <v>1315</v>
       </c>
@@ -6315,7 +6368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A117">
         <v>736</v>
       </c>
@@ -6358,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A118">
         <v>922</v>
       </c>
@@ -6401,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A119">
         <v>975</v>
       </c>
@@ -6444,7 +6497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A120">
         <v>1295</v>
       </c>
@@ -6487,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A121">
         <v>1325</v>
       </c>
@@ -6530,7 +6583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A122">
         <v>764</v>
       </c>
@@ -6573,7 +6626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A123">
         <v>948</v>
       </c>
@@ -6616,7 +6669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A124">
         <v>856</v>
       </c>
@@ -6659,7 +6712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A125">
         <v>1281</v>
       </c>
@@ -6702,7 +6755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A126">
         <v>729</v>
       </c>
@@ -6745,7 +6798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A127">
         <v>929</v>
       </c>
@@ -6788,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A128">
         <v>1359</v>
       </c>
@@ -6831,7 +6884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A129">
         <v>975</v>
       </c>
@@ -6874,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A130">
         <v>1295</v>
       </c>
@@ -6917,7 +6970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A131">
         <v>1325</v>
       </c>
@@ -6960,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A132">
         <v>764</v>
       </c>
@@ -7003,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A133">
         <v>948</v>
       </c>
@@ -7046,7 +7099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A134">
         <v>856</v>
       </c>
@@ -7089,7 +7142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A135">
         <v>1281</v>
       </c>
@@ -7132,7 +7185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A136">
         <v>729</v>
       </c>
@@ -7175,7 +7228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A137">
         <v>929</v>
       </c>
@@ -7218,7 +7271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A138">
         <v>1359</v>
       </c>
@@ -7261,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A139">
         <v>785</v>
       </c>
@@ -7304,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A140">
         <v>1295</v>
       </c>
@@ -7347,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A141">
         <v>1325</v>
       </c>
@@ -7390,7 +7443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A142">
         <v>764</v>
       </c>
@@ -7433,7 +7486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A143">
         <v>948</v>
       </c>
@@ -7476,7 +7529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A144">
         <v>856</v>
       </c>
@@ -7519,7 +7572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A145">
         <v>1281</v>
       </c>
@@ -7562,7 +7615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A146">
         <v>729</v>
       </c>
@@ -7605,7 +7658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A147">
         <v>929</v>
       </c>
@@ -7648,7 +7701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A148">
         <v>1359</v>
       </c>
@@ -7691,7 +7744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A149">
         <v>785</v>
       </c>
@@ -7734,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A150">
         <v>1295</v>
       </c>
@@ -7777,7 +7830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A151">
         <v>1325</v>
       </c>
@@ -7820,7 +7873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A152">
         <v>764</v>
       </c>
@@ -7837,7 +7890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A153">
         <v>948</v>
       </c>
@@ -7854,7 +7907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A154">
         <v>856</v>
       </c>
@@ -7871,7 +7924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A155">
         <v>1281</v>
       </c>
@@ -7888,7 +7941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A156">
         <v>729</v>
       </c>
@@ -7905,7 +7958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A157">
         <v>929</v>
       </c>
@@ -7922,7 +7975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A158">
         <v>1359</v>
       </c>
@@ -7939,7 +7992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A159">
         <v>785</v>
       </c>
@@ -7956,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A160">
         <v>1295</v>
       </c>
@@ -7973,7 +8026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A161">
         <v>1325</v>
       </c>
@@ -7990,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A162">
         <v>764</v>
       </c>
@@ -8033,7 +8086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A163">
         <v>948</v>
       </c>
@@ -8076,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A164">
         <v>856</v>
       </c>
@@ -8119,7 +8172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A165">
         <v>1281</v>
       </c>
@@ -8162,7 +8215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A166">
         <v>729</v>
       </c>
@@ -8205,7 +8258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A167">
         <v>929</v>
       </c>
@@ -8248,7 +8301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A168">
         <v>1359</v>
       </c>
@@ -8291,7 +8344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A169">
         <v>785</v>
       </c>
@@ -8334,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A170">
         <v>1295</v>
       </c>
@@ -8377,7 +8430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A171">
         <v>1236</v>
       </c>
@@ -8420,7 +8473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A172">
         <v>764</v>
       </c>
@@ -8463,7 +8516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A173">
         <v>948</v>
       </c>
@@ -8506,7 +8559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A174">
         <v>856</v>
       </c>
@@ -8549,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A175">
         <v>1281</v>
       </c>
@@ -8592,7 +8645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A176">
         <v>729</v>
       </c>
@@ -8635,7 +8688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A177">
         <v>929</v>
       </c>
@@ -8678,7 +8731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A178">
         <v>1359</v>
       </c>
@@ -8721,7 +8774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A179">
         <v>785</v>
       </c>
@@ -8764,7 +8817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A180">
         <v>1295</v>
       </c>
@@ -8807,7 +8860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A181">
         <v>1236</v>
       </c>
@@ -8850,7 +8903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A182">
         <v>1223</v>
       </c>
@@ -8893,7 +8946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A183">
         <v>1329</v>
       </c>
@@ -8936,7 +8989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A184">
         <v>1320</v>
       </c>
@@ -8979,7 +9032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A185">
         <v>1293</v>
       </c>
@@ -9022,7 +9075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A186">
         <v>915</v>
       </c>
@@ -9065,7 +9118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A187">
         <v>1262</v>
       </c>
@@ -9108,7 +9161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A188">
         <v>981</v>
       </c>
@@ -9151,7 +9204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A189">
         <v>785</v>
       </c>
@@ -9194,7 +9247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A190">
         <v>807</v>
       </c>
@@ -9237,7 +9290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A191">
         <v>1236</v>
       </c>
@@ -9280,7 +9333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A192">
         <v>1223</v>
       </c>
@@ -9323,7 +9376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A193">
         <v>1329</v>
       </c>
@@ -9366,7 +9419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A194">
         <v>1320</v>
       </c>
@@ -9409,7 +9462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A195">
         <v>1293</v>
       </c>
@@ -9452,7 +9505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A196">
         <v>915</v>
       </c>
@@ -9495,7 +9548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A197">
         <v>1262</v>
       </c>
@@ -9538,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A198">
         <v>981</v>
       </c>
@@ -9581,7 +9634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A199">
         <v>785</v>
       </c>
@@ -9624,7 +9677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A200">
         <v>807</v>
       </c>
@@ -9667,7 +9720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A201">
         <v>1236</v>
       </c>
@@ -9710,7 +9763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A202">
         <v>1223</v>
       </c>
@@ -9753,7 +9806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A203">
         <v>1329</v>
       </c>
@@ -9796,7 +9849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A204">
         <v>1320</v>
       </c>
@@ -9839,7 +9892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A205">
         <v>1293</v>
       </c>
@@ -9882,7 +9935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A206">
         <v>915</v>
       </c>
@@ -9925,7 +9978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A207">
         <v>1262</v>
       </c>
@@ -9968,7 +10021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A208">
         <v>981</v>
       </c>
@@ -10011,7 +10064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A209">
         <v>924</v>
       </c>
@@ -10054,7 +10107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A210">
         <v>807</v>
       </c>
@@ -10097,7 +10150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A211">
         <v>1236</v>
       </c>
@@ -10140,7 +10193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A212">
         <v>1223</v>
       </c>
@@ -10183,7 +10236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A213">
         <v>1329</v>
       </c>
@@ -10226,7 +10279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A214">
         <v>1320</v>
       </c>
@@ -10269,7 +10322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A215">
         <v>1293</v>
       </c>
@@ -10312,7 +10365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A216">
         <v>915</v>
       </c>
@@ -10355,7 +10408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A217">
         <v>1262</v>
       </c>
@@ -10398,7 +10451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A218">
         <v>981</v>
       </c>
@@ -10441,7 +10494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A219">
         <v>924</v>
       </c>
@@ -10484,7 +10537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A220">
         <v>807</v>
       </c>
@@ -10527,7 +10580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A221">
         <v>1236</v>
       </c>
@@ -10570,7 +10623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A222">
         <v>1223</v>
       </c>
@@ -10613,7 +10666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A223">
         <v>1329</v>
       </c>
@@ -10656,7 +10709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A224">
         <v>1320</v>
       </c>
@@ -10699,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A225">
         <v>1293</v>
       </c>
@@ -10742,7 +10795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A226">
         <v>915</v>
       </c>
@@ -10785,7 +10838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A227">
         <v>1262</v>
       </c>
@@ -10828,7 +10881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A228">
         <v>981</v>
       </c>
@@ -10871,7 +10924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A229">
         <v>924</v>
       </c>
@@ -10914,7 +10967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A230">
         <v>807</v>
       </c>
@@ -10957,7 +11010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A231">
         <v>1236</v>
       </c>
@@ -11000,7 +11053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A232">
         <v>1223</v>
       </c>
@@ -11043,7 +11096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A233">
         <v>1329</v>
       </c>
@@ -11086,7 +11139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A234">
         <v>1320</v>
       </c>
@@ -11129,7 +11182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A235">
         <v>1293</v>
       </c>
@@ -11172,7 +11225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A236">
         <v>915</v>
       </c>
@@ -11215,7 +11268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A237">
         <v>1262</v>
       </c>
@@ -11258,7 +11311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A238">
         <v>981</v>
       </c>
@@ -11301,7 +11354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A239">
         <v>924</v>
       </c>
@@ -11344,7 +11397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A240">
         <v>807</v>
       </c>
@@ -11387,7 +11440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A241">
         <v>973</v>
       </c>
@@ -11430,7 +11483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A242">
         <v>1116</v>
       </c>
@@ -11473,7 +11526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A243">
         <v>1003</v>
       </c>
@@ -11516,7 +11569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A244">
         <v>1261</v>
       </c>
@@ -11559,7 +11612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A245">
         <v>978</v>
       </c>
@@ -11602,7 +11655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A246">
         <v>861</v>
       </c>
@@ -11645,7 +11698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A247">
         <v>1040</v>
       </c>
@@ -11688,7 +11741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A248">
         <v>778</v>
       </c>
@@ -11731,7 +11784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A249">
         <v>924</v>
       </c>
@@ -11774,7 +11827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A250">
         <v>807</v>
       </c>
@@ -11817,7 +11870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A251">
         <v>973</v>
       </c>
@@ -11860,7 +11913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A252">
         <v>1116</v>
       </c>
@@ -11903,7 +11956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A253">
         <v>1003</v>
       </c>
@@ -11946,7 +11999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A254">
         <v>1261</v>
       </c>
@@ -11989,7 +12042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A255">
         <v>978</v>
       </c>
@@ -12032,7 +12085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A256">
         <v>861</v>
       </c>
@@ -12075,7 +12128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A257">
         <v>1040</v>
       </c>
@@ -12118,7 +12171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A258">
         <v>778</v>
       </c>
@@ -12161,7 +12214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A259">
         <v>924</v>
       </c>
@@ -12204,7 +12257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A260">
         <v>1354</v>
       </c>
@@ -12247,7 +12300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A261">
         <v>973</v>
       </c>
@@ -12290,7 +12343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A262">
         <v>1116</v>
       </c>
@@ -12333,7 +12386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A263">
         <v>1003</v>
       </c>
@@ -12376,7 +12429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A264">
         <v>1261</v>
       </c>
@@ -12419,7 +12472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A265">
         <v>978</v>
       </c>
@@ -12462,7 +12515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A266">
         <v>861</v>
       </c>
@@ -12505,7 +12558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A267">
         <v>1040</v>
       </c>
@@ -12548,7 +12601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A268">
         <v>778</v>
       </c>
@@ -12591,7 +12644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A269">
         <v>924</v>
       </c>
@@ -12634,7 +12687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A270">
         <v>1354</v>
       </c>
@@ -12677,7 +12730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A271">
         <v>973</v>
       </c>
@@ -12720,7 +12773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A272">
         <v>1116</v>
       </c>
@@ -12763,7 +12816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A273">
         <v>1003</v>
       </c>
@@ -12806,7 +12859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A274">
         <v>1261</v>
       </c>
@@ -12849,7 +12902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A275">
         <v>978</v>
       </c>
@@ -12892,7 +12945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A276">
         <v>861</v>
       </c>
@@ -12935,7 +12988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A277">
         <v>1040</v>
       </c>
@@ -12978,7 +13031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A278">
         <v>778</v>
       </c>
@@ -13021,7 +13074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A279">
         <v>1300</v>
       </c>
@@ -13064,7 +13117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A280">
         <v>1354</v>
       </c>
@@ -13107,7 +13160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A281">
         <v>973</v>
       </c>
@@ -13150,7 +13203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A282">
         <v>1116</v>
       </c>
@@ -13193,7 +13246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A283">
         <v>1003</v>
       </c>
@@ -13236,7 +13289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A284">
         <v>1261</v>
       </c>
@@ -13279,7 +13332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A285">
         <v>978</v>
       </c>
@@ -13322,7 +13375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A286">
         <v>861</v>
       </c>
@@ -13365,7 +13418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A287">
         <v>1040</v>
       </c>
@@ -13408,7 +13461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A288">
         <v>778</v>
       </c>
@@ -13451,7 +13504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A289">
         <v>1300</v>
       </c>
@@ -13494,7 +13547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A290">
         <v>1354</v>
       </c>
@@ -13537,7 +13590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A291">
         <v>973</v>
       </c>
@@ -13580,7 +13633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A292">
         <v>1116</v>
       </c>
@@ -13623,7 +13676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A293">
         <v>1003</v>
       </c>
@@ -13666,7 +13719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A294">
         <v>1261</v>
       </c>
@@ -13709,7 +13762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A295">
         <v>978</v>
       </c>
@@ -13752,7 +13805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A296">
         <v>861</v>
       </c>
@@ -13795,7 +13848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A297">
         <v>1040</v>
       </c>
@@ -13838,7 +13891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A298">
         <v>778</v>
       </c>
@@ -13881,7 +13934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A299">
         <v>1300</v>
       </c>
@@ -13924,7 +13977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A300">
         <v>1354</v>
       </c>
@@ -13967,7 +14020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A301">
         <v>973</v>
       </c>
@@ -14010,7 +14063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.75">
       <c r="L302">
         <f>SUM(L2:L301)</f>
         <v>149</v>
@@ -14018,6 +14071,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -14025,9 +14081,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44374E1C-F75B-49B9-B338-DDC3868BED3F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
